--- a/QuantumComp/Readings.xlsx
+++ b/QuantumComp/Readings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kiitacin-my.sharepoint.com/personal/20051025_kiit_ac_in/Documents/ML/QuantumComp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{77C7D18D-AB1A-433F-8C43-B3118BF61892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9A551A-3E4A-4266-9E50-11AEFCC67FF2}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{77C7D18D-AB1A-433F-8C43-B3118BF61892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD2B6AD-647C-4E00-B6B4-2E8E2DB9E045}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{49534C7B-6E52-40EC-9D34-AC39E05F844D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>3_17_13</t>
   </si>
@@ -100,9 +100,6 @@
     <t>mod8-10_177</t>
   </si>
   <si>
-    <t>2x4</t>
-  </si>
-  <si>
     <t>4x2</t>
   </si>
   <si>
@@ -175,21 +172,12 @@
     <t>qc</t>
   </si>
   <si>
-    <t>2018 SenGupta</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>2014 A. Shafei</t>
-  </si>
-  <si>
     <t>decod24-v3_46</t>
   </si>
   <si>
-    <t>2018 A. Bhattacharjee</t>
-  </si>
-  <si>
     <t>4gt13-v1_93</t>
   </si>
   <si>
@@ -214,19 +202,28 @@
     <t>sym9_148</t>
   </si>
   <si>
-    <t>4x5</t>
-  </si>
-  <si>
     <t>3x4</t>
   </si>
   <si>
-    <t>2015 Sengupta</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>[2015]</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>ShrivastwaEtAl2015</t>
+  </si>
+  <si>
+    <t>KoleEtAl2018</t>
+  </si>
+  <si>
+    <t>BhattacharjeeEtAl2018</t>
+  </si>
+  <si>
+    <t>ShafaeiEtAl2014</t>
   </si>
 </sst>
 </file>
@@ -491,6 +488,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -791,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1927B9F6-8DA2-435C-8104-E3AB81C21D0D}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,64 +809,64 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -982,19 +983,19 @@
         <v>78</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>31.25</v>
+        <v>37.5</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="3"/>
-        <v>21.428571428571427</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1008,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1068,368 +1069,366 @@
         <v>115</v>
       </c>
       <c r="I7" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="2"/>
-        <v>10.526315789473683</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f>C8+3*G8</f>
+        <v>26</v>
       </c>
       <c r="I8" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="2"/>
-        <v>29.411764705882355</v>
+        <f>C8+3*I8</f>
+        <v>23</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f>((G8-I8)/G8)*100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9+3*E9</f>
+        <v>94</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3">
+        <f>C9+3*G9</f>
+        <v>91</v>
+      </c>
+      <c r="I9" s="2">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6</v>
-      </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>C9+3*I9</f>
+        <v>79</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f>((E9-I9)/E9)*100</f>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="L9" s="3">
+        <f>((G9-I9)/G9)*100</f>
         <v>25</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f>C10+3*E10</f>
+        <v>46</v>
       </c>
       <c r="G10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>C10+3*G10</f>
+        <v>49</v>
       </c>
       <c r="I10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>C10+3*I10</f>
+        <v>40</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
-        <v>36.363636363636367</v>
+        <f>((E10-I10)/E10)*100</f>
+        <v>25</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <f>((G10-I10)/G10)*100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f>C11+3*E11</f>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>C11+3*G11</f>
+        <v>48</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>C11+3*I11</f>
+        <v>45</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>38.461538461538467</v>
+        <f>((E11-I11)/E11)*100</f>
+        <v>36.363636363636367</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>((G11-I11)/G11)*100</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f>C12+3*E12</f>
+        <v>79</v>
       </c>
       <c r="G12" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>C12+3*G12</f>
+        <v>70</v>
       </c>
       <c r="I12" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f>C12+3*I12</f>
+        <v>64</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
+        <f>((E12-I12)/E12)*100</f>
+        <v>38.461538461538467</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
+        <f>((G12-I12)/G12)*100</f>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>C13+3*E13</f>
+        <v>132</v>
       </c>
       <c r="G13" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>C13+3*G13</f>
+        <v>114</v>
       </c>
       <c r="I13" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>C13+3*I13</f>
+        <v>105</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>((E13-I13)/E13)*100</f>
+        <v>37.5</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
-        <v>18.181818181818183</v>
+        <f>((G13-I13)/G13)*100</f>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14+3*E14</f>
+        <v>62</v>
+      </c>
+      <c r="G14" s="4">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5">
+        <f>C14+3*G14</f>
+        <v>65</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
+        <f>C14+3*I14</f>
+        <v>53</v>
+      </c>
+      <c r="K14" s="4">
+        <f>((E14-I14)/E14)*100</f>
         <v>30</v>
       </c>
-      <c r="B14" s="1">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>125</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4">
-        <v>69</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="4"/>
-        <v>332</v>
-      </c>
-      <c r="G14" s="4">
-        <v>54</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="I14" s="4">
-        <v>39</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="2"/>
-        <v>43.478260869565219</v>
-      </c>
       <c r="L14" s="5">
-        <f t="shared" si="3"/>
-        <v>27.777777777777779</v>
+        <f>((G14-I14)/G14)*100</f>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>C15+3*E15</f>
+        <v>332</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>C15+3*G15</f>
+        <v>287</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>C15+3*I15</f>
+        <v>242</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>((E15-I15)/E15)*100</f>
+        <v>43.478260869565219</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
-        <v>-50</v>
+        <f>((G15-I15)/G15)*100</f>
+        <v>27.777777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -1455,19 +1454,19 @@
         <v>201</v>
       </c>
       <c r="I16" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>45.833333333333329</v>
+        <v>52.083333333333336</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="3"/>
-        <v>31.578947368421051</v>
+        <v>39.473684210526315</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1687,7 +1686,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -1696,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4">
         <v>53</v>
@@ -1713,24 +1712,24 @@
         <v>144</v>
       </c>
       <c r="I22" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>52.830188679245282</v>
+        <v>56.60377358490566</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="3"/>
-        <v>24.242424242424242</v>
+        <v>30.303030303030305</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1773,7 +1772,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -1816,7 +1815,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -1825,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
         <v>18</v>
@@ -1842,24 +1841,24 @@
         <v>63</v>
       </c>
       <c r="I25" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="3"/>
-        <v>14.285714285714285</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>8</v>
@@ -1868,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="4">
         <v>18</v>
@@ -1902,7 +1901,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -1928,19 +1927,19 @@
         <v>108</v>
       </c>
       <c r="I27" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="3"/>
-        <v>29.166666666666668</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1954,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
@@ -1988,7 +1987,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2031,7 +2030,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
@@ -2040,7 +2039,7 @@
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4">
         <v>37</v>
@@ -2074,7 +2073,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -2083,7 +2082,7 @@
         <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2">
         <v>54</v>
@@ -2117,7 +2116,7 @@
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
@@ -2126,7 +2125,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4">
         <v>31</v>
@@ -2160,150 +2159,152 @@
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
       <c r="E33" s="11">
         <f>SUM(E3:E32)</f>
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F33" s="12">
         <f>SUM(F3:F32)</f>
-        <v>3875</v>
+        <v>3857</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" ref="G33:J33" si="5">SUM(G3:G32)</f>
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="5"/>
-        <v>3434</v>
+        <v>3445</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="5"/>
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="5"/>
-        <v>2981</v>
+        <v>2944</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="2"/>
-        <v>38.451612903225808</v>
+        <v>40.155440414507773</v>
       </c>
       <c r="L33" s="17">
         <f t="shared" si="3"/>
-        <v>24.044585987261147</v>
+        <v>26.550079491255964</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" s="18"/>
       <c r="K35" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="I36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K36" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <f>C37+3*E37</f>
+        <v>18</v>
       </c>
       <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <f>C37+3*G37</f>
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="H37" s="3">
-        <f t="shared" ref="H37:H41" si="6">C37+3*G37</f>
-        <v>26</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:J41" si="7">C37+3*I37</f>
-        <v>23</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>47</v>
+        <f>C37+3*I37</f>
+        <v>18</v>
+      </c>
+      <c r="K37" s="2">
+        <f>((E37-I37)/E37)*100</f>
+        <v>0</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37:L42" si="8">((G37-I37)/G37)*100</f>
-        <v>33.333333333333329</v>
+        <f>((G37-I37)/G37)*100</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
@@ -2312,7 +2313,7 @@
         <v>1224</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E38" s="4">
         <v>588</v>
@@ -2325,28 +2326,28 @@
         <v>598</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H38:H41" si="6">C38+3*G38</f>
         <v>3018</v>
       </c>
       <c r="I38" s="4">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="7"/>
-        <v>2259</v>
+        <f t="shared" ref="J38:J41" si="7">C38+3*I38</f>
+        <v>2235</v>
       </c>
       <c r="K38" s="4">
         <f>((E38-I38)/E38)*100</f>
-        <v>41.326530612244902</v>
+        <v>42.687074829931973</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="8"/>
-        <v>42.307692307692307</v>
+        <f t="shared" ref="L38:L42" si="8">((G38-I38)/G38)*100</f>
+        <v>43.645484949832777</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>15</v>
@@ -2355,7 +2356,7 @@
         <v>458</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2">
         <v>280</v>
@@ -2372,24 +2373,24 @@
         <v>1205</v>
       </c>
       <c r="I39" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="7"/>
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="K39" s="2">
         <f>((E39-I39)/E39)*100</f>
-        <v>50.357142857142854</v>
+        <v>52.857142857142861</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="8"/>
-        <v>44.176706827309239</v>
+        <v>46.987951807228917</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1">
         <v>8</v>
@@ -2415,24 +2416,24 @@
         <v>6559</v>
       </c>
       <c r="I40" s="4">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" si="7"/>
-        <v>4840</v>
+        <v>4828</v>
       </c>
       <c r="K40" s="4">
         <f>((E40-I40)/E40)*100</f>
-        <v>52.06666666666667</v>
+        <v>52.333333333333329</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="8"/>
-        <v>44.349845201238395</v>
+        <v>44.659442724458202</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -2441,7 +2442,7 @@
         <v>4452</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="2">
         <v>2789</v>
@@ -2475,43 +2476,49 @@
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="11">
-        <f>SUM(E38:E41)</f>
-        <v>5157</v>
-      </c>
-      <c r="F42" s="12">
-        <f>SUM(F38:F41)</f>
-        <v>24288</v>
-      </c>
-      <c r="G42" s="11">
-        <f>SUM(G37:G41)</f>
-        <v>4207</v>
-      </c>
-      <c r="H42" s="12">
-        <f t="shared" ref="H42:J42" si="10">SUM(H37:H41)</f>
-        <v>21455</v>
+      <c r="E42" s="14">
+        <f t="shared" ref="E42:H42" si="10">SUM(E37:E41)</f>
+        <v>5160</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="10"/>
+        <v>24306</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="10"/>
+        <v>4206</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="10"/>
+        <v>21444</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="10"/>
-        <v>2077</v>
+        <f>SUM(I37:I41)</f>
+        <v>2059</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="10"/>
-        <v>15065</v>
+        <f>SUM(J37:J41)</f>
+        <v>15003</v>
       </c>
       <c r="K42" s="16">
         <f>((E42-I42)/E42)*100</f>
-        <v>59.72464611208067</v>
+        <v>60.096899224806201</v>
       </c>
       <c r="L42" s="17">
         <f t="shared" si="8"/>
-        <v>50.629902543380076</v>
-      </c>
+        <v>51.046124583927721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
